--- a/Advance DSA Sheet.xlsx
+++ b/Advance DSA Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Platform</t>
   </si>
@@ -40,10 +40,25 @@
     <t>https://leetcode.com/problems/elimination-game/description/</t>
   </si>
   <si>
+    <t xml:space="preserve">turn by turn </t>
+  </si>
+  <si>
     <t>Basic</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-the-winner-of-the-circular-game/description/</t>
+  </si>
+  <si>
+    <t>learn the to treverse array in circular</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-arithmetic-subsequence/description/</t>
+  </si>
+  <si>
+    <t>learn to find the solution if curr depend on prev</t>
   </si>
 </sst>
 </file>
@@ -51,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,9 +88,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,35 +103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -126,6 +111,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -134,68 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +148,81 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -218,181 +233,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,21 +424,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,6 +445,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -460,21 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -482,6 +482,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,142 +529,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,18 +1003,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.8" customWidth="1"/>
     <col min="2" max="2" width="16.7" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="94.5" customWidth="1"/>
+    <col min="5" max="5" width="40.7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1016,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1029,24 +1045,49 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/elimination-game/description/"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game/description/"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://leetcode.com/problems/longest-arithmetic-subsequence/description/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Advance DSA Sheet.xlsx
+++ b/Advance DSA Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Platform</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>learn to find the solution if curr depend on prev</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-height-by-stacking-cuboids/</t>
   </si>
 </sst>
 </file>
@@ -66,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,13 +89,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,6 +102,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -111,6 +117,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,26 +146,79 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,81 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,37 +239,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,37 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,103 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,26 +442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +468,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,32 +507,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,142 +535,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.8" customWidth="1"/>
     <col min="2" max="2" width="16.7" customWidth="1"/>
@@ -1083,11 +1089,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/elimination-game/description/"/>
     <hyperlink ref="D3" r:id="rId2" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game/description/"/>
     <hyperlink ref="D4" r:id="rId3" display="https://leetcode.com/problems/longest-arithmetic-subsequence/description/"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://leetcode.com/problems/maximum-height-by-stacking-cuboids/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Advance DSA Sheet.xlsx
+++ b/Advance DSA Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Platform</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-height-by-stacking-cuboids/</t>
+  </si>
+  <si>
+    <t>must/basic</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/edit-distance/</t>
+  </si>
+  <si>
+    <t>best for action on strings</t>
   </si>
 </sst>
 </file>
@@ -1009,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.8" customWidth="1"/>
     <col min="2" max="2" width="16.7" customWidth="1"/>
@@ -1106,12 +1115,30 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/elimination-game/description/"/>
     <hyperlink ref="D3" r:id="rId2" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game/description/"/>
     <hyperlink ref="D4" r:id="rId3" display="https://leetcode.com/problems/longest-arithmetic-subsequence/description/"/>
     <hyperlink ref="D5" r:id="rId4" display="https://leetcode.com/problems/maximum-height-by-stacking-cuboids/"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://leetcode.com/problems/edit-distance/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
